--- a/data/trans_dic/DC_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Clase-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.351998976879714</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2646884469312144</v>
+        <v>0.2646884469312143</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1581756056430886</v>
+        <v>0.155568825355408</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3137039953642925</v>
+        <v>0.311756570490992</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2407487446524185</v>
+        <v>0.2383960743179467</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2225398488932439</v>
+        <v>0.2207162036442649</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3899623251968538</v>
+        <v>0.38813616228539</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2924825263949967</v>
+        <v>0.2910515830158419</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.1933082707027315</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3820150600755074</v>
+        <v>0.3820150600755075</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2814083301226722</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1566092780428814</v>
+        <v>0.1580250344913718</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3427293225857589</v>
+        <v>0.3408206161651182</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2541094902537375</v>
+        <v>0.2530032456583787</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.230054087097439</v>
+        <v>0.2302496548704309</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4245538421018235</v>
+        <v>0.4282450315786111</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3085557338878826</v>
+        <v>0.3099321990636701</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2723179282290743</v>
+        <v>0.2723179282290742</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.4797683955057055</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2329648200207663</v>
+        <v>0.2336319000121942</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4162035153672953</v>
+        <v>0.4208438340558092</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2973044698299205</v>
+        <v>0.2954621277433382</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3153587806698275</v>
+        <v>0.314908076730624</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.54340851631269</v>
+        <v>0.5384121528402389</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3646999711252865</v>
+        <v>0.3664788891133206</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.3819547617230613</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3124176473128369</v>
+        <v>0.312417647312837</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2316962410918036</v>
+        <v>0.2324919623674065</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3543425385322729</v>
+        <v>0.3538853066543401</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2923971224343461</v>
+        <v>0.2932761150814823</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2853635677615862</v>
+        <v>0.2838765024168525</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4105409508531642</v>
+        <v>0.4117728106092179</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3316121391223958</v>
+        <v>0.3344399150204256</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.252359477430355</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.4809093137002603</v>
+        <v>0.4809093137002604</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3881106841750451</v>
+        <v>0.388110684175045</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2159661911999474</v>
+        <v>0.2172646934444174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4530291907204059</v>
+        <v>0.4497744166827589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3635376712661522</v>
+        <v>0.3669931631347148</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2935722060885052</v>
+        <v>0.2906789239361417</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5102804084434469</v>
+        <v>0.508496821803109</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4115078429998264</v>
+        <v>0.4155247244356834</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.381896349448657</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.3218847943523063</v>
+        <v>0.3218847943523062</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06137040677550104</v>
+        <v>0.05460743897302381</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3505800421461938</v>
+        <v>0.3519087508629025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2933957251935252</v>
+        <v>0.2928584336405656</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1817374602140567</v>
+        <v>0.1788438955102366</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4147879590194402</v>
+        <v>0.4155366244413437</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3547378018642676</v>
+        <v>0.3564970321730435</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2149677202319784</v>
+        <v>0.2140509230211748</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3912688600937181</v>
+        <v>0.3923868916192524</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3085695987131237</v>
+        <v>0.3091776029497344</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2448649620401436</v>
+        <v>0.2431084330746635</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4190490824237301</v>
+        <v>0.4192395601066352</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3303994848699112</v>
+        <v>0.3305065163517464</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>87094</v>
+        <v>85659</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>153216</v>
+        <v>152265</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>250145</v>
+        <v>247700</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>122534</v>
+        <v>121530</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>190462</v>
+        <v>189570</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>303898</v>
+        <v>302411</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>75675</v>
+        <v>76360</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>145024</v>
+        <v>144216</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>230313</v>
+        <v>229311</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>111165</v>
+        <v>111259</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>179647</v>
+        <v>181209</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>279661</v>
+        <v>280909</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>109869</v>
+        <v>110184</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>78037</v>
+        <v>78907</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>195956</v>
+        <v>194742</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>148727</v>
+        <v>148514</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>101887</v>
+        <v>100951</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>240377</v>
+        <v>241550</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>262244</v>
+        <v>263144</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>305164</v>
+        <v>304770</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>582763</v>
+        <v>584515</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>322987</v>
+        <v>321304</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>353562</v>
+        <v>354623</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>660921</v>
+        <v>666557</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>122661</v>
+        <v>123399</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>376399</v>
+        <v>373695</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>508522</v>
+        <v>513355</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>166738</v>
+        <v>165095</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>423966</v>
+        <v>422485</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>575623</v>
+        <v>581242</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>14559</v>
+        <v>12954</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>295988</v>
+        <v>297110</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>317310</v>
+        <v>316729</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>43113</v>
+        <v>42427</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>350198</v>
+        <v>350830</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>383652</v>
+        <v>385555</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>740021</v>
+        <v>736865</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1422416</v>
+        <v>1426481</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2184015</v>
+        <v>2188319</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>842942</v>
+        <v>836895</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1523408</v>
+        <v>1524101</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2338524</v>
+        <v>2339282</v>
       </c>
     </row>
     <row r="32">
